--- a/Dataset5/Detection_result/dataset3_and_5_examples.xlsx
+++ b/Dataset5/Detection_result/dataset3_and_5_examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Duikang_dataset\VulHunter\Dataset3\Examples_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SmartContract\Github\VulHunter\Dataset5\Detection_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637D3BA2-A156-49B5-A888-C4CB134A4F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC784675-91C4-4458-988D-5D0F338AF04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,21 +16,11 @@
     <sheet name="ethernet_event_examples" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="223">
   <si>
     <t>VulHunter</t>
   </si>
@@ -430,94 +420,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>8503_WinStar</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_ETHMaximalist</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_AceTokens</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_Eightherbank</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_AceDapp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_DharmaTradeReserve</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_Trader__9</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_RedExchange</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_VokenPublicSale2__2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_KlerosGovernor</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_CoinRepublik</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_Vesting__2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_V01_Marketplace</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_StandardBounties</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5006_SavingAccountProxy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>5006_Proxy</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_KyberFeeBurner</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_Token__29</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_Oracle__19</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_DharmaUpgradeBeaconControllerManager__3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_Pets</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8503_Revolution__2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>DOS_KotET_0xb336a86e2Feb1E87a328FCb7DD4D04dE3DF254D0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -634,6 +536,345 @@
   </si>
   <si>
     <t>Event</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TokenMarketplace</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DharmaTradeReserveStaging</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trader__7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trader__54</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSNRecipient</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>XetherSicboLottery</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrix</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaffleMarket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>VokenPublicSale2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERC223I</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinAtc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_KyberFeeBurner</t>
+  </si>
+  <si>
+    <t>8433_Pets</t>
+  </si>
+  <si>
+    <t>8433_Revolution__2</t>
+  </si>
+  <si>
+    <t>4980_SavingAccountProxy</t>
+  </si>
+  <si>
+    <t>4980_Proxy</t>
+  </si>
+  <si>
+    <t>8433_WinStar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_ETHMaximalist</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_AceTokens</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Eightherbank</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_AceDapp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_PNR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_TokenMarketplace</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DharmaTradeReserve</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Trader__9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DharmaTradeReserveStaging</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DeFi__1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Trader__56</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Trader__7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Trader__54</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x43472E1018b5a4d6446418F5114061e8d88a7f6E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xc1697d340807324200e26e4617ce9c0070488e23</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2040f2f2bb228927235dc24c33e99e3a0a7922c1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6d72ff6373c86f3b3cca09ff18068d3c8f2b62b6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xB60aeB53A7D634d94C3c10bCA3AA04B02A938DB9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3067c7fdcd0b73b596bfc3269b55691f5cd8ae2a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4B9C13e932dE7597997D2F75e03616CBA5413511</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_RedExchange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_VokenPublicSale2__2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Acid</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Account__1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_VokenPublicSale2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_AragonFundraisingController</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DappLogic</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_KlerosGovernor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_CoinRepublik</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Cardma__1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Matrix__1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_RaffleMarket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x23ea10cc1e6ebdb499d24e45369a35f43627062f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2c2EC514814a242C1f9a606D92051F76Ce87834F</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xd4260e4bfb354259f5e30279cb0d7f784ea5f37a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x93383e74ee566a0110673628e14ccaa5ea840729</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x847f5abba6a36c727ecff76784ee3648ba868808</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3863fb40d6e94d33fff464feef9b42e8e130ae6f</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xf0542ed44d268c85875b3b84b0e7ce0773e9aeef</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x065ae34771aa010747dbe375dabaf02c0931d778</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Token__29</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Exchange__3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_CoinAtc</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xaA5bBD5A177A588b9F213505cA3740b444Dbd586</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2b73cb82aebd4c261cae319d2f9eafedbf72abb6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Oracle__19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_FixedSupplyCratesSale</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_XetherSicboLottery</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DharmaUpgradeBeaconControllerManager__3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DharmaUpgradeBeaconControllerManager__4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DharmaAccountRecoveryManager__2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_DharmaAccountRecoveryManager__3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2e61c63e045a978b51c6517c79c2592fcfbc82cd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x45045a31d43fe159077eae1f5acc4cc4adc35776</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000000000ccdfcb0aadf8e9a9b6794ce56b76eb</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000000003709edea9182789f1153e59cfe849e</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x000000005bf12f10b4e7001adf7e7400e49431fa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeFi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_StandardBounties</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Hasanah</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hasanah</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7a35fe1e97823f78736ef60b8053bff68fd7deb4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_Vesting__2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8433_V01_Marketplace</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1233,24 +1474,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1599,7 +1834,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1607,16 +1842,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E475F2E6-86EA-4BF8-831F-8933F09322EC}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.25" customWidth="1"/>
     <col min="4" max="4" width="46.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
@@ -1630,9 +1865,9 @@
     <col min="15" max="15" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -1646,49 +1881,46 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1696,47 +1928,47 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1744,1909 +1976,3061 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>149</v>
+      <c r="F16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>149</v>
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P17" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>148</v>
+        <v>191</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P18" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>6</v>
+        <v>192</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P19" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>6</v>
+        <v>193</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>6</v>
+        <v>194</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P21" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>149</v>
+        <v>195</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P22" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>149</v>
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P24" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G25" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P26" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P27" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P28" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P29" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>148</v>
+        <v>127</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="P30" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="P30" s="1"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P31" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>148</v>
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P33" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P33" s="1"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>6</v>
+        <v>126</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P34" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P35" s="2"/>
+      <c r="J35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P36" s="2"/>
+      <c r="J36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P37" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P38" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P40" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P41" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
+        <v>86</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" t="s">
         <v>104</v>
       </c>
-      <c r="C42" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
         <v>105</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E66" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P42" s="2"/>
+      <c r="F66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
